--- a/biology/Médecine/Endocarde/Endocarde.xlsx
+++ b/biology/Médecine/Endocarde/Endocarde.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans le cœur, l'endocarde est la plus interne des couches de cellules, comparable du point de vue embryologique et biologique à l'endothélium qui délimite les vaisseaux sanguins. C'est une mince membrane endothéliale qui tapisse la face interne du myocarde et qui se prolonge, en dehors du cœur, par une tunique interne des artères et des veines.
 Il est donc constitué d'un endothélium bordant la lumière du cœur et d'une couche conjonctive sous-endothéliale, séparés par des éléments fibreux de collagène. L'endocarde est séparé du myocarde par une couche sous-endocardique constituée de tissu conjonctif, de cellules nodales ainsi que des cellules cardionectrices de Purkinje, siège d'une importante vascularisation.
@@ -515,7 +527,9 @@
           <t>Pathologie de l'endocarde</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En cas d'infarctus du myocarde, une ischémie du myocarde peut affecter également l'endocarde, occasionnant ainsi un déchirement des limites extérieures du cœur.
 En cas d'endocardite infectieuse, l'endocarde (particulièrement l'endocarde qui délimite les valves cardiaques) est contaminé par des bactéries.
